--- a/Social Media Usage and Emotional Well-Being Dashboard.xlsx
+++ b/Social Media Usage and Emotional Well-Being Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BCE8D9-010C-4E5E-8C34-10B4C7D3A7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184FB69B-B074-4FC5-B1BA-773A085AE583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="35">
   <si>
     <t>User_ID</t>
   </si>
@@ -286,7 +286,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="12">
+      <x14:dxfs count="4">
         <dxf>
           <font>
             <b/>
@@ -344,122 +344,6 @@
             <family val="2"/>
             <scheme val="minor"/>
           </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-          <border>
-            <left style="thin">
-              <color rgb="FF174B59"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF174B59"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF174B59"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF174B59"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="9"/>
-            <color rgb="FF174B59"/>
-            <name val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-          <border>
-            <left style="thin">
-              <color rgb="FF174B59"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF174B59"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF174B59"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF174B59"/>
-            </bottom>
-          </border>
         </dxf>
       </x14:dxfs>
     </ext>
@@ -836,6 +720,44 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="24788F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FBFE-4FBF-928E-4B1ED0018535}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="24788F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FBFE-4FBF-928E-4B1ED0018535}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -893,9 +815,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily Usage Time by Platform'!$A$4:$A$9</c:f>
+              <c:f>'Daily Usage Time by Platform'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Telegram</c:v>
                 </c:pt>
@@ -906,9 +828,15 @@
                   <c:v>Whatsapp</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Instagram</c:v>
                 </c:pt>
               </c:strCache>
@@ -916,10 +844,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Usage Time by Platform'!$B$4:$B$9</c:f>
+              <c:f>'Daily Usage Time by Platform'!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6250</c:v>
                 </c:pt>
@@ -930,9 +858,15 @@
                   <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16750</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>37865</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,49 +1331,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3910</c:v>
+                  <c:v>5490</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5565</c:v>
+                  <c:v>7695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3145</c:v>
+                  <c:v>4060</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4500</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6900</c:v>
+                  <c:v>7575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3260</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7215</c:v>
+                  <c:v>9210</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8215</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5605</c:v>
+                  <c:v>8940</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4525</c:v>
+                  <c:v>5040</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4690</c:v>
+                  <c:v>5685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4220</c:v>
+                  <c:v>4445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5725</c:v>
+                  <c:v>6460</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3495</c:v>
+                  <c:v>3855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3595</c:v>
+                  <c:v>3760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,13 +1905,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>327</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,19 +3184,19 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4170,22 +4104,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -4193,23 +4133,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$B$4:$B$9</c:f>
+              <c:f>'Bar Chart'!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3748</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>19560</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1545</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>2436</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2386</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>7049</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2916</c:v>
                 </c:pt>
               </c:numCache>
@@ -4247,22 +4193,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -4270,23 +4222,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$C$4:$C$9</c:f>
+              <c:f>'Bar Chart'!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6612</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>672</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1037</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3315</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1213</c:v>
                 </c:pt>
               </c:numCache>
@@ -4324,22 +4282,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -4347,23 +4311,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$D$4:$D$9</c:f>
+              <c:f>'Bar Chart'!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1432</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>681</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
@@ -4401,22 +4371,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -4424,23 +4400,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$E$4:$E$9</c:f>
+              <c:f>'Bar Chart'!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8286</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1507</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1750</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4234</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1770</c:v>
                 </c:pt>
               </c:numCache>
@@ -5050,49 +5032,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3910</c:v>
+                  <c:v>5490</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5565</c:v>
+                  <c:v>7695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3145</c:v>
+                  <c:v>4060</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4500</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6900</c:v>
+                  <c:v>7575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3260</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7215</c:v>
+                  <c:v>9210</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8215</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5605</c:v>
+                  <c:v>8940</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4525</c:v>
+                  <c:v>5040</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4690</c:v>
+                  <c:v>5685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4220</c:v>
+                  <c:v>4445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5725</c:v>
+                  <c:v>6460</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3495</c:v>
+                  <c:v>3855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3595</c:v>
+                  <c:v>3760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7741,19 +7723,19 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8469,13 +8451,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>327</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9226,6 +9208,15 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="24788F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-51AF-4A02-8E1D-6F08C33E7A09}"/>
@@ -9236,6 +9227,15 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="24788F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-51AF-4A02-8E1D-6F08C33E7A09}"/>
@@ -9299,9 +9299,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily Usage Time by Platform'!$A$4:$A$9</c:f>
+              <c:f>'Daily Usage Time by Platform'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Telegram</c:v>
                 </c:pt>
@@ -9312,9 +9312,15 @@
                   <c:v>Whatsapp</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Instagram</c:v>
                 </c:pt>
               </c:strCache>
@@ -9322,10 +9328,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Usage Time by Platform'!$B$4:$B$9</c:f>
+              <c:f>'Daily Usage Time by Platform'!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6250</c:v>
                 </c:pt>
@@ -9336,9 +9342,15 @@
                   <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16750</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>37865</c:v>
                 </c:pt>
               </c:numCache>
@@ -9871,22 +9883,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -9894,23 +9912,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$B$4:$B$9</c:f>
+              <c:f>'Bar Chart'!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3748</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>19560</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1545</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>2436</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2386</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>7049</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2916</c:v>
                 </c:pt>
               </c:numCache>
@@ -9948,22 +9972,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -9971,23 +10001,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$C$4:$C$9</c:f>
+              <c:f>'Bar Chart'!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6612</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>672</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1037</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3315</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1213</c:v>
                 </c:pt>
               </c:numCache>
@@ -10025,22 +10061,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -10048,23 +10090,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$D$4:$D$9</c:f>
+              <c:f>'Bar Chart'!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1432</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>681</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
@@ -10102,22 +10150,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>LinkedIn</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Telegram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Whatsapp</c:v>
                 </c:pt>
               </c:strCache>
@@ -10125,23 +10179,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$E$4:$E$9</c:f>
+              <c:f>'Bar Chart'!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8286</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1507</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1750</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4234</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1770</c:v>
                 </c:pt>
               </c:numCache>
@@ -28888,7 +28948,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{766221F9-94D5-4758-AEBD-338A5A21554F}" name="PivotTable7" cacheId="110" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -28922,10 +28982,10 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="8">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="3"/>
-        <item h="1" x="6"/>
+        <item x="6"/>
         <item x="5"/>
         <item x="1"/>
         <item x="4"/>
@@ -28951,7 +29011,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="8">
     <i>
       <x v="4"/>
     </i>
@@ -28960,6 +29020,12 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i>
       <x v="5"/>
@@ -29399,10 +29465,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="8">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="3"/>
-        <item h="1" x="6"/>
+        <item x="6"/>
         <item x="5"/>
         <item x="1"/>
         <item x="4"/>
@@ -29541,10 +29607,10 @@
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="7">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="3"/>
-        <item h="1" x="6"/>
+        <item x="6"/>
         <item x="5"/>
         <item x="1"/>
         <item x="4"/>
@@ -29773,7 +29839,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FF3E36F-CB0B-4203-8AFA-AFD34ACDEFB5}" name="PivotTable7" cacheId="110" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -29807,10 +29873,10 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="3"/>
-        <item h="1" x="6"/>
+        <item x="6"/>
         <item x="5"/>
         <item x="1"/>
         <item x="4"/>
@@ -29827,12 +29893,18 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -29992,10 +30064,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="8">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="3"/>
-        <item h="1" x="6"/>
+        <item x="6"/>
         <item x="5"/>
         <item x="1"/>
         <item x="4"/>
@@ -30164,10 +30236,10 @@
   <data>
     <tabular pivotCacheId="2048946241">
       <items count="7">
-        <i x="2"/>
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
         <i x="3" s="1"/>
-        <i x="6"/>
+        <i x="6" s="1"/>
         <i x="5" s="1"/>
         <i x="1" s="1"/>
         <i x="4" s="1"/>
@@ -30551,7 +30623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BC6E45-7DE3-42BE-9A7E-DB325DC33880}">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
@@ -30597,26 +30669,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>16750</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>37865</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>37865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1">
-        <v>74565</v>
+      <c r="B11" s="1">
+        <v>95465</v>
       </c>
     </row>
   </sheetData>
@@ -30652,7 +30740,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>327</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -30660,7 +30748,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>312</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -30668,7 +30756,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>88</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -30676,7 +30764,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>727</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -30720,7 +30808,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -30728,7 +30816,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -30736,7 +30824,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -30744,7 +30832,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -30752,7 +30840,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -30765,8 +30853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CF49A-DDFB-48F1-8176-6189979D4353}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30788,7 +30876,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459CBDC5-7E06-4A4A-A97B-BE5A0BDD6B91}">
-  <dimension ref="A3:E9"/>
+  <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -31145,104 +31233,138 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>19560</v>
+        <v>3748</v>
       </c>
       <c r="C4" s="1">
-        <v>6612</v>
+        <v>1646</v>
       </c>
       <c r="D4" s="1">
-        <v>1432</v>
+        <v>370</v>
       </c>
       <c r="E4" s="1">
-        <v>8286</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1545</v>
+        <v>19560</v>
       </c>
       <c r="C5" s="1">
-        <v>672</v>
+        <v>6612</v>
       </c>
       <c r="D5" s="1">
-        <v>150</v>
+        <v>1432</v>
       </c>
       <c r="E5" s="1">
-        <v>1507</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>2386</v>
+        <v>1545</v>
       </c>
       <c r="C6" s="1">
-        <v>1037</v>
+        <v>672</v>
       </c>
       <c r="D6" s="1">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1">
-        <v>1750</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>7049</v>
+        <v>2436</v>
       </c>
       <c r="C7" s="1">
-        <v>3315</v>
+        <v>1030</v>
       </c>
       <c r="D7" s="1">
-        <v>681</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1">
-        <v>4234</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>2916</v>
+        <v>2386</v>
       </c>
       <c r="C8" s="1">
-        <v>1213</v>
+        <v>1037</v>
       </c>
       <c r="D8" s="1">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1">
-        <v>1770</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7049</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3315</v>
+      </c>
+      <c r="D9" s="1">
+        <v>681</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2916</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1213</v>
+      </c>
+      <c r="D10" s="1">
+        <v>240</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1">
-        <v>33456</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12849</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2723</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17547</v>
+      <c r="B11" s="1">
+        <v>39640</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15525</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3303</v>
+      </c>
+      <c r="E11" s="1">
+        <v>22469</v>
       </c>
     </row>
   </sheetData>
@@ -31285,7 +31407,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>3910</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -31293,7 +31415,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>5565</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -31301,7 +31423,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>3145</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -31309,7 +31431,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>4500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -31317,7 +31439,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>6900</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -31325,7 +31447,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1">
-        <v>3260</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -31333,7 +31455,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>7215</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -31341,7 +31463,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>8215</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -31349,7 +31471,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1">
-        <v>5605</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -31357,7 +31479,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>4525</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -31365,7 +31487,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>4690</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -31373,7 +31495,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1">
-        <v>4220</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -31381,7 +31503,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1">
-        <v>5725</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -31389,7 +31511,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>3495</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -31397,7 +31519,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>3595</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -31405,7 +31527,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>74565</v>
+        <v>95465</v>
       </c>
     </row>
   </sheetData>
